--- a/shaunak/JS_Angular4/MCQ1 Answers.xlsx
+++ b/shaunak/JS_Angular4/MCQ1 Answers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Shaunak Sheth</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -381,21 +384,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -403,7 +406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -411,7 +414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -419,7 +422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -427,15 +430,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -443,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -451,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -459,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -467,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -475,31 +481,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
